--- a/src/main/resources/DB import.xlsx
+++ b/src/main/resources/DB import.xlsx
@@ -12,9 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7080" xr2:uid="{C0F8F8FC-0936-46C7-8770-C46CBCF440AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Customer" sheetId="1" r:id="rId1"/>
-    <sheet name="Owner" sheetId="2" r:id="rId2"/>
-    <sheet name="Car" sheetId="3" r:id="rId3"/>
+    <sheet name="OWNERTYPE" sheetId="4" r:id="rId1"/>
+    <sheet name="OWNER" sheetId="2" r:id="rId2"/>
+    <sheet name="CUSTOMERTYPE" sheetId="5" r:id="rId3"/>
+    <sheet name="CUSTOMER" sheetId="1" r:id="rId4"/>
+    <sheet name="CARTYPE" sheetId="6" r:id="rId5"/>
+    <sheet name="CAR" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="134">
   <si>
     <t>Customer Name</t>
   </si>
@@ -34,9 +37,6 @@
     <t>Customer Type</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>Owner Name</t>
   </si>
   <si>
@@ -419,13 +419,25 @@
   </si>
   <si>
     <t>813APQ</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Rental Location</t>
+  </si>
+  <si>
+    <t>Arlington</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +458,13 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -468,13 +487,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,139 +808,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A44C874-0870-455B-B783-92AAE3F49743}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5DF85B-9437-4CC8-9EDB-71404EAF2179}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="27.6328125" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -944,178 +858,178 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1124,639 +1038,912 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3563D554-5C91-4E5E-BB6C-BE7CCC3CF167}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A44C874-0870-455B-B783-92AAE3F49743}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.6328125" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74590457-6D7E-44A2-B0D8-F8D46DC5B52A}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E70FC8-86B1-4515-B960-1708D28F4023}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.54296875" customWidth="1"/>
     <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.36328125" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" customWidth="1"/>
+    <col min="4" max="5" width="21.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>2017</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-      <c r="F2">
-        <v>150</v>
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>2016</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>150</v>
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>2017</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>150</v>
+        <v>102</v>
+      </c>
+      <c r="E4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>2017</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>150</v>
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6">
         <v>2017</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>150</v>
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7">
         <v>2017</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>200</v>
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8">
         <v>2016</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8">
-        <v>40</v>
-      </c>
-      <c r="F8">
-        <v>200</v>
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9">
         <v>2017</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9">
-        <v>40</v>
-      </c>
-      <c r="F9">
-        <v>200</v>
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>2017</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10">
-        <v>40</v>
-      </c>
-      <c r="F10">
-        <v>200</v>
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11">
         <v>2017</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" t="s">
         <v>40</v>
-      </c>
-      <c r="F11">
-        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <v>2012</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12">
-        <v>50</v>
-      </c>
-      <c r="F12">
-        <v>250</v>
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13">
         <v>2017</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13">
-        <v>50</v>
-      </c>
-      <c r="F13">
-        <v>250</v>
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14">
         <v>2017</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14">
-        <v>50</v>
-      </c>
-      <c r="F14">
-        <v>250</v>
+        <v>112</v>
+      </c>
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15">
         <v>2017</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15">
-        <v>50</v>
-      </c>
-      <c r="F15">
-        <v>250</v>
+        <v>113</v>
+      </c>
+      <c r="E15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16">
         <v>2017</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-      <c r="F16">
-        <v>250</v>
+        <v>114</v>
+      </c>
+      <c r="E16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17">
         <v>2012</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17">
-        <v>35</v>
-      </c>
-      <c r="F17">
-        <v>175</v>
+        <v>115</v>
+      </c>
+      <c r="E17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18">
         <v>2017</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18">
-        <v>35</v>
-      </c>
-      <c r="F18">
-        <v>175</v>
+        <v>116</v>
+      </c>
+      <c r="E18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19">
         <v>2017</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19">
-        <v>35</v>
-      </c>
-      <c r="F19">
-        <v>175</v>
+        <v>117</v>
+      </c>
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20">
         <v>2017</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20">
-        <v>35</v>
-      </c>
-      <c r="F20">
-        <v>175</v>
+        <v>118</v>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21">
         <v>2017</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21">
-        <v>35</v>
-      </c>
-      <c r="F21">
-        <v>175</v>
+        <v>119</v>
+      </c>
+      <c r="E21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22">
         <v>2015</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22">
-        <v>25</v>
-      </c>
-      <c r="F22">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="E22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23">
         <v>2017</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-      <c r="F23">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="E23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24">
         <v>2017</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24">
-        <v>25</v>
-      </c>
-      <c r="F24">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="E24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25">
         <v>2017</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25">
-        <v>25</v>
-      </c>
-      <c r="F25">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="E25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26">
         <v>2017</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26">
-        <v>25</v>
-      </c>
-      <c r="F26">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="E26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27">
         <v>2017</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27">
-        <v>30</v>
-      </c>
-      <c r="F27">
-        <v>150</v>
+        <v>125</v>
+      </c>
+      <c r="E27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28">
         <v>2015</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28">
-        <v>30</v>
-      </c>
-      <c r="F28">
-        <v>150</v>
+        <v>126</v>
+      </c>
+      <c r="E28" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29">
         <v>2017</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29">
-        <v>30</v>
-      </c>
-      <c r="F29">
-        <v>150</v>
+        <v>127</v>
+      </c>
+      <c r="E29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30">
         <v>2017</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30">
-        <v>30</v>
-      </c>
-      <c r="F30">
-        <v>150</v>
+        <v>128</v>
+      </c>
+      <c r="E30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31">
         <v>2016</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31">
-        <v>30</v>
-      </c>
-      <c r="F31">
-        <v>150</v>
+        <v>129</v>
+      </c>
+      <c r="E31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
